--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/80_Yozgat_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/80_Yozgat_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37070D5F-C61D-4C8C-AA79-85F9DDAA69A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{267EA7B0-C5E2-4C23-9C9D-6FC5701D8058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{C13B0337-5610-49DC-9352-214D433C591B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{FC641A1B-701E-4DBD-BD6C-C1D691EDFC59}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -841,13 +841,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3597ECF9-6918-4166-9772-8DBF3C5B3615}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CDF9D668-7589-4EF9-85BD-6D9572E973F9}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{1F0BE6AA-0F6F-4386-99C3-6F75470E7D54}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{96EC4AD5-6341-4BD3-9A2D-A78758EB8C5E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{B1822FE1-A0EE-44E6-B1D3-215A828AC52D}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{154F89E6-2DFA-45F1-B56A-A866B984FD71}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{418084AF-9557-4F09-BDAB-8EEA628B412C}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{376C674C-E030-47C2-BD67-B286D5F9389D}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6A0501E3-5C76-4F77-AC02-90DB7AB9EBD5}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{06615DB3-3EE4-401A-A0ED-A74A81E18FAA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{3051235A-A67B-4507-A870-F0818B9CBEE9}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{49427C3A-644D-486D-BE00-BFAF13524100}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{D172D149-E500-4996-9D47-7EE8E3E367DB}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{388417F0-783F-4F13-B8AA-A6C0F17AE278}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1217,7 +1217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECA92A4-C078-4937-9E3D-3E32578890B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7196A26-AEBA-4EB1-BC46-AA7FE1DA84EE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2484,7 +2484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49754675-BC2A-46C4-BACE-715729E030C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9293DE68-7CB0-49A0-9184-168015358766}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3743,7 +3743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEDBEFE-1A88-4E77-9C2D-944AEBA803DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89626D8-CB2F-41CF-930A-1410374DEFD2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5002,7 +5002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B70BE9-DC0B-4560-9C03-5C66AB2B357B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543386A-7D4F-4DCA-95DC-574C7160F8A7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6263,7 +6263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD121190-B326-408B-A759-5DA21D62D07A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA11F1DD-E6EC-4FE2-837A-DF24394631A3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7520,7 +7520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F87365D-E157-418E-818F-98A098882942}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5B7C23-EE42-4CE8-A12A-298E97524DDA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
